--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.570384905948909</v>
+        <v>11.451657</v>
       </c>
       <c r="N2">
-        <v>8.570384905948909</v>
+        <v>34.354971</v>
       </c>
       <c r="O2">
-        <v>0.6994370645599617</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P2">
-        <v>0.6994370645599617</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q2">
-        <v>90.45724980132282</v>
+        <v>181.270408661202</v>
       </c>
       <c r="R2">
-        <v>90.45724980132282</v>
+        <v>1631.433677950818</v>
       </c>
       <c r="S2">
-        <v>0.009777744616656718</v>
+        <v>0.01040571894658097</v>
       </c>
       <c r="T2">
-        <v>0.009777744616656718</v>
+        <v>0.01167799348704598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.486649506573794</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N3">
-        <v>0.486649506573794</v>
+        <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03971591778932378</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P3">
-        <v>0.03971591778932378</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q3">
-        <v>5.136405944997891</v>
+        <v>8.294720348999332</v>
       </c>
       <c r="R3">
-        <v>5.136405944997891</v>
+        <v>74.65248314099399</v>
       </c>
       <c r="S3">
-        <v>0.0005552066383620284</v>
+        <v>0.0004761534402092781</v>
       </c>
       <c r="T3">
-        <v>0.0005552066383620284</v>
+        <v>0.0005343712243377011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.19622658865231</v>
+        <v>0.123396</v>
       </c>
       <c r="N4">
-        <v>3.19622658865231</v>
+        <v>0.370188</v>
       </c>
       <c r="O4">
-        <v>0.2608470176507144</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P4">
-        <v>0.2608470176507144</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q4">
-        <v>33.73499208310533</v>
+        <v>1.953258235656</v>
       </c>
       <c r="R4">
-        <v>33.73499208310533</v>
+        <v>17.579324120904</v>
       </c>
       <c r="S4">
-        <v>0.003646497521846132</v>
+        <v>0.0001121256159813646</v>
       </c>
       <c r="T4">
-        <v>0.003646497521846132</v>
+        <v>0.0001258348625292851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.081771352162</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>140.081771352162</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.1855361836944317</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.1855361836944317</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>8.570384905948909</v>
+        <v>0.104921</v>
       </c>
       <c r="N5">
-        <v>8.570384905948909</v>
+        <v>0.314763</v>
       </c>
       <c r="O5">
-        <v>0.6994370645599617</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P5">
-        <v>0.6994370645599617</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q5">
-        <v>1200.554698795156</v>
+        <v>1.660814024306</v>
       </c>
       <c r="R5">
-        <v>1200.554698795156</v>
+        <v>14.947326218754</v>
       </c>
       <c r="S5">
-        <v>0.1297708836928911</v>
+        <v>9.533803165727211E-05</v>
       </c>
       <c r="T5">
-        <v>0.1297708836928911</v>
+        <v>0.00010699471304933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>140.081771352162</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>140.081771352162</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.1855361836944317</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.1855361836944317</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.486649506573794</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N6">
-        <v>0.486649506573794</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O6">
-        <v>0.03971591778932378</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P6">
-        <v>0.03971591778932378</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q6">
-        <v>68.17072490851268</v>
+        <v>71.63799670293301</v>
       </c>
       <c r="R6">
-        <v>68.17072490851268</v>
+        <v>429.8279802175981</v>
       </c>
       <c r="S6">
-        <v>0.007368739818552923</v>
+        <v>0.004112336178267608</v>
       </c>
       <c r="T6">
-        <v>0.007368739818552923</v>
+        <v>0.003076759062517379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19622658865231</v>
+        <v>11.451657</v>
       </c>
       <c r="N7">
-        <v>3.19622658865231</v>
+        <v>34.354971</v>
       </c>
       <c r="O7">
-        <v>0.2608470176507144</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P7">
-        <v>0.2608470176507144</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q7">
-        <v>447.7330821812936</v>
+        <v>1780.737118194573</v>
       </c>
       <c r="R7">
-        <v>447.7330821812936</v>
+        <v>16026.63406375116</v>
       </c>
       <c r="S7">
-        <v>0.04839656018298762</v>
+        <v>0.1022221448416874</v>
       </c>
       <c r="T7">
-        <v>0.04839656018298762</v>
+        <v>0.1147205251094476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>154.497709563478</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>154.497709563478</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.2046298754309405</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.2046298754309405</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.570384905948909</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N8">
-        <v>8.570384905948909</v>
+        <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.6994370645599617</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P8">
-        <v>0.6994370645599617</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q8">
-        <v>1324.10483804651</v>
+        <v>81.48443267490899</v>
       </c>
       <c r="R8">
-        <v>1324.10483804651</v>
+        <v>733.3598940741809</v>
       </c>
       <c r="S8">
-        <v>0.1431257193926877</v>
+        <v>0.004677564921925297</v>
       </c>
       <c r="T8">
-        <v>0.1431257193926877</v>
+        <v>0.005249476078865887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>154.497709563478</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>154.497709563478</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.2046298754309405</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.2046298754309405</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.486649506573794</v>
+        <v>0.123396</v>
       </c>
       <c r="N9">
-        <v>0.486649506573794</v>
+        <v>0.370188</v>
       </c>
       <c r="O9">
-        <v>0.03971591778932378</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P9">
-        <v>0.03971591778932378</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q9">
-        <v>75.1862341258479</v>
+        <v>19.188126001044</v>
       </c>
       <c r="R9">
-        <v>75.1862341258479</v>
+        <v>172.693134009396</v>
       </c>
       <c r="S9">
-        <v>0.0081270633098548</v>
+        <v>0.00110148284958979</v>
       </c>
       <c r="T9">
-        <v>0.0081270633098548</v>
+        <v>0.001236157694594363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.497709563478</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>154.497709563478</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.2046298754309405</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.2046298754309405</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.19622658865231</v>
+        <v>0.104921</v>
       </c>
       <c r="N10">
-        <v>3.19622658865231</v>
+        <v>0.314763</v>
       </c>
       <c r="O10">
-        <v>0.2608470176507144</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P10">
-        <v>0.2608470176507144</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q10">
-        <v>493.8096871926706</v>
+        <v>16.315256314269</v>
       </c>
       <c r="R10">
-        <v>493.8096871926706</v>
+        <v>146.837306828421</v>
       </c>
       <c r="S10">
-        <v>0.05337709272839804</v>
+        <v>0.0009365674905330022</v>
       </c>
       <c r="T10">
-        <v>0.05337709272839804</v>
+        <v>0.001051078653072507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>396.600699876961</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>396.600699876961</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.525291617856004</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.525291617856004</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.570384905948909</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N11">
-        <v>8.570384905948909</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O11">
-        <v>0.6994370645599617</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P11">
-        <v>0.6994370645599617</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q11">
-        <v>3399.02065191428</v>
+        <v>703.7466332436046</v>
       </c>
       <c r="R11">
-        <v>3399.02065191428</v>
+        <v>4222.479799461627</v>
       </c>
       <c r="S11">
-        <v>0.3674084272311566</v>
+        <v>0.04039815284370191</v>
       </c>
       <c r="T11">
-        <v>0.3674084272311566</v>
+        <v>0.03022500532122926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>396.600699876961</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>396.600699876961</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.525291617856004</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.525291617856004</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.486649506573794</v>
+        <v>11.451657</v>
       </c>
       <c r="N12">
-        <v>0.486649506573794</v>
+        <v>34.354971</v>
       </c>
       <c r="O12">
-        <v>0.03971591778932378</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P12">
-        <v>0.03971591778932378</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q12">
-        <v>193.0055349019445</v>
+        <v>2051.213614016623</v>
       </c>
       <c r="R12">
-        <v>193.0055349019445</v>
+        <v>18460.92252614961</v>
       </c>
       <c r="S12">
-        <v>0.02086243871018994</v>
+        <v>0.1177486856486908</v>
       </c>
       <c r="T12">
-        <v>0.02086243871018994</v>
+        <v>0.1321454472461458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>396.600699876961</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>396.600699876961</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.525291617856004</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.525291617856004</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.19622658865231</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N13">
-        <v>3.19622658865231</v>
+        <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.2608470176507144</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P13">
-        <v>0.2608470176507144</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q13">
-        <v>1267.625702024858</v>
+        <v>93.86111848033676</v>
       </c>
       <c r="R13">
-        <v>1267.625702024858</v>
+        <v>844.7500663230309</v>
       </c>
       <c r="S13">
-        <v>0.1370207519146574</v>
+        <v>0.005388041137721376</v>
       </c>
       <c r="T13">
-        <v>0.1370207519146574</v>
+        <v>0.006046819987860645</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>53.2757126866682</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>53.2757126866682</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.07056287424175893</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.07056287424175893</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>8.570384905948909</v>
+        <v>0.123396</v>
       </c>
       <c r="N14">
-        <v>8.570384905948909</v>
+        <v>0.370188</v>
       </c>
       <c r="O14">
-        <v>0.6994370645599617</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P14">
-        <v>0.6994370645599617</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q14">
-        <v>456.593363863492</v>
+        <v>22.102614068444</v>
       </c>
       <c r="R14">
-        <v>456.593363863492</v>
+        <v>198.923526615996</v>
       </c>
       <c r="S14">
-        <v>0.0493542896265696</v>
+        <v>0.001268787286792283</v>
       </c>
       <c r="T14">
-        <v>0.0493542896265696</v>
+        <v>0.00142391791933564</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.2757126866682</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>53.2757126866682</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.07056287424175893</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.07056287424175893</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.486649506573794</v>
+        <v>0.104921</v>
       </c>
       <c r="N15">
-        <v>0.486649506573794</v>
+        <v>0.314763</v>
       </c>
       <c r="O15">
-        <v>0.03971591778932378</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P15">
-        <v>0.03971591778932378</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q15">
-        <v>25.9265992913343</v>
+        <v>18.79338366458567</v>
       </c>
       <c r="R15">
-        <v>25.9265992913343</v>
+        <v>169.140452981271</v>
       </c>
       <c r="S15">
-        <v>0.00280246931236409</v>
+        <v>0.001078822902829371</v>
       </c>
       <c r="T15">
-        <v>0.00280246931236409</v>
+        <v>0.001210727187385447</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>53.2757126866682</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>53.2757126866682</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.07056287424175893</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.07056287424175893</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.19622658865231</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N16">
-        <v>3.19622658865231</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O16">
-        <v>0.2608470176507144</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P16">
-        <v>0.2608470176507144</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q16">
-        <v>170.2812494185301</v>
+        <v>810.6388417349295</v>
       </c>
       <c r="R16">
-        <v>170.2812494185301</v>
+        <v>4863.833050409577</v>
       </c>
       <c r="S16">
-        <v>0.01840611530282523</v>
+        <v>0.04653423587763469</v>
       </c>
       <c r="T16">
-        <v>0.01840611530282523</v>
+        <v>0.03481588706450274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H17">
+        <v>1879.118438</v>
+      </c>
+      <c r="I17">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J17">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.451657</v>
+      </c>
+      <c r="N17">
+        <v>34.354971</v>
+      </c>
+      <c r="O17">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P17">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q17">
+        <v>7173.006604783921</v>
+      </c>
+      <c r="R17">
+        <v>64557.0594430553</v>
+      </c>
+      <c r="S17">
+        <v>0.4117621363719363</v>
+      </c>
+      <c r="T17">
+        <v>0.4621069982236611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H18">
+        <v>1879.118438</v>
+      </c>
+      <c r="I18">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J18">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N18">
+        <v>1.572043</v>
+      </c>
+      <c r="O18">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P18">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q18">
+        <v>328.2283318476481</v>
+      </c>
+      <c r="R18">
+        <v>2954.054986628834</v>
+      </c>
+      <c r="S18">
+        <v>0.01884175027097382</v>
+      </c>
+      <c r="T18">
+        <v>0.02114547183895218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H19">
+        <v>1879.118438</v>
+      </c>
+      <c r="I19">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J19">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.123396</v>
+      </c>
+      <c r="N19">
+        <v>0.370188</v>
+      </c>
+      <c r="O19">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P19">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q19">
+        <v>77.29189959181599</v>
+      </c>
+      <c r="R19">
+        <v>695.627096326344</v>
+      </c>
+      <c r="S19">
+        <v>0.004436895078131615</v>
+      </c>
+      <c r="T19">
+        <v>0.004979380289927205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H20">
+        <v>1879.118438</v>
+      </c>
+      <c r="I20">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J20">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.104921</v>
+      </c>
+      <c r="N20">
+        <v>0.314763</v>
+      </c>
+      <c r="O20">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P20">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q20">
+        <v>65.71966187779933</v>
+      </c>
+      <c r="R20">
+        <v>591.4769569001941</v>
+      </c>
+      <c r="S20">
+        <v>0.00377259772190871</v>
+      </c>
+      <c r="T20">
+        <v>0.004233861384481281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H21">
+        <v>1879.118438</v>
+      </c>
+      <c r="I21">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J21">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N21">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P21">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q21">
+        <v>2834.769487743813</v>
+      </c>
+      <c r="R21">
+        <v>17008.61692646288</v>
+      </c>
+      <c r="S21">
+        <v>0.162728240012618</v>
+      </c>
+      <c r="T21">
+        <v>0.1217496735389089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H22">
+        <v>128.915001</v>
+      </c>
+      <c r="I22">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J22">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.451657</v>
+      </c>
+      <c r="N22">
+        <v>34.354971</v>
+      </c>
+      <c r="O22">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P22">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q22">
+        <v>738.1451868033283</v>
+      </c>
+      <c r="R22">
+        <v>4428.87112081997</v>
+      </c>
+      <c r="S22">
+        <v>0.04237278115261911</v>
+      </c>
+      <c r="T22">
+        <v>0.03170237859063053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H23">
+        <v>128.915001</v>
+      </c>
+      <c r="I23">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J23">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N23">
+        <v>1.572043</v>
+      </c>
+      <c r="O23">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P23">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q23">
+        <v>33.77665415284049</v>
+      </c>
+      <c r="R23">
+        <v>202.659924917043</v>
+      </c>
+      <c r="S23">
+        <v>0.001938928546949051</v>
+      </c>
+      <c r="T23">
+        <v>0.001450663496317624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H24">
+        <v>128.915001</v>
+      </c>
+      <c r="I24">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J24">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.123396</v>
+      </c>
+      <c r="N24">
+        <v>0.370188</v>
+      </c>
+      <c r="O24">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P24">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q24">
+        <v>7.953797731698</v>
+      </c>
+      <c r="R24">
+        <v>47.722786390188</v>
+      </c>
+      <c r="S24">
+        <v>0.0004565829821054357</v>
+      </c>
+      <c r="T24">
+        <v>0.0003416052985667878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H25">
+        <v>128.915001</v>
+      </c>
+      <c r="I25">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J25">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.104921</v>
+      </c>
+      <c r="N25">
+        <v>0.314763</v>
+      </c>
+      <c r="O25">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P25">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q25">
+        <v>6.7629454099605</v>
+      </c>
+      <c r="R25">
+        <v>40.577672459763</v>
+      </c>
+      <c r="S25">
+        <v>0.0003882228197468671</v>
+      </c>
+      <c r="T25">
+        <v>0.0002904597355742969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H26">
+        <v>128.915001</v>
+      </c>
+      <c r="I26">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J26">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N26">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P26">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q26">
+        <v>291.7146976665953</v>
+      </c>
+      <c r="R26">
+        <v>1166.858790666381</v>
+      </c>
+      <c r="S26">
+        <v>0.01674570702920873</v>
+      </c>
+      <c r="T26">
+        <v>0.008352511991060624</v>
       </c>
     </row>
   </sheetData>
